--- a/medicine/Enfance/Élisabeth_Ivanovsky/Élisabeth_Ivanovsky.xlsx
+++ b/medicine/Enfance/Élisabeth_Ivanovsky/Élisabeth_Ivanovsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élisavieta Andréïevna Ivanovskaia est une peintre et illustratrice née le 25 juillet 1910 à Kichinev, en Bessarabie, dans l'Empire russe - actuellement Chișinău, Moldavie. Elle meurt le 11 avril 2006 à Bruxelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élisavieta Andréïevna Ivanovskaia masculinisa son nom en Elisabeth Ivanovsky[1] lorsqu'elle émigre en Occident - à Bruxelles - en octobre 1932, pour s'inscrire à l'Institut Supérieur d’Architecture et de Décoration (La Cambre). Elle est alors de nationalité roumaine[2]. Elle est diplômée en juin 1934 pour le cours d'arts de l'impression et d'illustration du livre donné par Joris Minne. Deux membres du jury d’examen auront une influence décisive sur sa carrière d’illustratrice: l’éditeur anversois De Sikkel lui fait illustrer Lode Baekelmans, un écrivain flamand réputé, tandis que Franz Hellens lui propose d’imager un de ses romans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élisavieta Andréïevna Ivanovskaia masculinisa son nom en Elisabeth Ivanovsky lorsqu'elle émigre en Occident - à Bruxelles - en octobre 1932, pour s'inscrire à l'Institut Supérieur d’Architecture et de Décoration (La Cambre). Elle est alors de nationalité roumaine. Elle est diplômée en juin 1934 pour le cours d'arts de l'impression et d'illustration du livre donné par Joris Minne. Deux membres du jury d’examen auront une influence décisive sur sa carrière d’illustratrice: l’éditeur anversois De Sikkel lui fait illustrer Lode Baekelmans, un écrivain flamand réputé, tandis que Franz Hellens lui propose d’imager un de ses romans.
 Élisabeth Ivanovsky illustre La Mort dans l’Âme d’Hellens en 1934. Grands et Petits et Deux Contes russes sont rédigés l’été par le fils adoptif de Franz Hellens Alexandre Van Ermengem, âgé de treize ans. Ils sont publiés en automne par les Éditions Desclée de Brouwer. En 1935 Élisabeth Ivanovsky  est diplômée du cours de décor et costume de théâtre du dramaturge Herman Teirlinck. Teirlinck l’invite à créer les costumes de sa pièce Elkerlijk qui est jouée devant la reine Élisabeth de Belgique.
 De 1934 à 1937 Hellens enverra à Ivanovsky trente et une lettres, cartes ou notes (conservées à la Bibliothèque royale, Bruxelles). En 1936 elle illustre la version pour enfants de "Bass Bassina Boulou" et les Minutes insolites du surréaliste bruxellois Marcel Lecomte. Ses décors de théâtre obtiennent en 1937 une Médaille d’Or à la VIe Biennale de Milan. Cette année elle annote d’une centaine de gouaches les manuscrits de rêves et de nouvelles qu’Hellens lui transmet au jour le jour : Nocturnales (deux rêves), Fantômes (deux nouvelles). En 1940, elle image d’une gouache chacun des cinquante exemplaires d’Invocation, poème dédié à la mémoire de Frédéric Van Ermengem mort au combat. Ultérieurement elle illustrera encore de trois dessins à la plume la Fable du Maigre et de la Grosse d'Hellens dans La Gazette des lettres (Paris) no 26 du 15 novembre 1952. Dernière rencontre d’Élisabeth Ivanovsky avec Franz Hellens à la Librairie Jacques Antoine (Bruxelles) en 1971. 
 En 1938, Zinaïda Schakhowskoy lui présente René Meurant, poète en quête d’un portrait gravé pour un de ses recueils. Meurant l’introduit auprès de ses amis du Journal des Poètes, Armand Bernier et Géo Libbrecht notamment. Elle illustre l"écrivain flamand Stijn Streuvels, le fabuliste patoisan wallon Henri Pétrez et le romancier ardennais Arsène Soreil. Elle crée la collection Pomme d'api aux Éditions des Artistes de George Houyoux, vingt-quatre très petits formats publiés en quatre séries de 1942 à 1946, avec des textes de René Meurant.
@@ -521,7 +535,7 @@
 De 1941 à 1946 elle partage un moment de création avec René Meurant. Il écrit en 1940 L'Art de servir un texte - Élisabeth Ivanovsky imagière de talent (Bruxelles: Savoir et Beauté no 4, p. 6-7), en 1941 une introduction pour "Chansons Populaires des Provinces Belges".
 Les Éditions des Artistes (Bruxelles) publient de 1942 à 1945 les 24 livrets de la "Collection Pomme d’Api" créée par Ivanovsky, dont Meurant rédige les textes. En 1943 elle illustre ses quatrains du Bestiaire des Songes, en 1944 il écrit le texte de Petite Miche chez le même éditeur. En 1945 il transcrit Quatre perles du Trésor des Frères Grimm qu’elle illustre (Diest: Pro Arte). Il y aura encore Cuchette et Porcinet aux Éditions des Artistes en 1946.
 Ensuite Élisabeth Ivanovsky illustrera essentiellement pour la jeunesse, notamment aux Éditions Desclée de Brouwer, chez Casterman et Gautier-Languereau, souvent en collaboration avec Marcelle Vérité. Ses éditions originales ont été publiées dans cinq pays en sept langues: allemand, français, néerlandais, polonais, roumain, russe, wallon.
-Des éditions, coéditions ou rééditions modifiées ont été publiées dans vingt-cinq pays en vingt-deux langues: afrikaans, anglais, allemand, chinois, danois, espagnol, français, grec, gaélique, hongrois, indonésien, islandais, italien, japonais, néerlandais, norvégien, portugais, russe, serbo-croate, suédois, turc, wallon[3], depuis les manuels d’alphabétisation et d’apprentissage de la lecture publiés par l’État roumain en 1930 jusqu'aux Fables du Baron d’Fleuru, à Charleroi, en dialecte wallon en 1999.
+Des éditions, coéditions ou rééditions modifiées ont été publiées dans vingt-cinq pays en vingt-deux langues: afrikaans, anglais, allemand, chinois, danois, espagnol, français, grec, gaélique, hongrois, indonésien, islandais, italien, japonais, néerlandais, norvégien, portugais, russe, serbo-croate, suédois, turc, wallon, depuis les manuels d’alphabétisation et d’apprentissage de la lecture publiés par l’État roumain en 1930 jusqu'aux Fables du Baron d’Fleuru, à Charleroi, en dialecte wallon en 1999.
 Il n’y a plus guère de livres d’Élisabeth Ivanovsky en librairie lorsque les Éditions MeMo rééditent la Collection Pomme d’Api sous le titre Les très petits d’Élisabeth Ivanovsky en 2007 puis CIRKUS en 2010 et en 2016 les quatre titres de la Collection Sans-Souci qui seront également publiées au Japon et en Chine.
 </t>
         </is>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Avec Marcelle Vérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Rimes enfantines parues chez Desclée De Brouwer inaugurèrent en 1937 une collaboration de quarante-neuf ans de Marcelle Vérité avec Élisabeth Ivanovsky.
 Le même éditeur publia, de 1938 à 1947, les quatre séries de la collection "Histoires naturelles" de quatre titres chacune, en 1938 encore "Dame Capucine et autres Chansons" et en 1941 "Petite Pomme".
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le musée national d’Art moldave de Chișinău célèbre le centenaire de sa naissance par une exposition, un timbre est frappé à son effigie par la poste moldave,
 un colloque international consacré aux artistes de l’émigration russe lui est dédié au Musée Nabokov de Saint-Petersbourg,
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Archives et collections</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Œuvres originales sur papier (dessins et estampes) conservées dans des collections publiques
 Musée national des Arts de Moldavie, Chișinău (1925-1930, 1933-1934, 1937, 1953, 1969-1970)
@@ -648,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,7 +686,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sélection parmi 346 éditions originales publiées de 1931 à 1999.
 La Légende de Saint Nicolas Bruxelles : ISAD, 1933. (OCLC 957670274).
@@ -711,7 +733,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -729,18 +751,20 @@
           <t>Périodiques (1930-1983)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1930 à 1932 des compositions publiées dans la presse roumaine de Chișinău (Kishineff).
 1934 - Des compositions pour Золотоӣ Пєтушокъ n°1, une revue littéraire russe de Kishineff (Chișinău).
 De 1936 à 1938 des dessins à la plume dans le Bulletin de l'Union des femmes coloniales (Bruxelles).
 1937 - La couverture du mensuel bruxellois "Charmes du foyer".
-De 1945 à 1948 trente-huit livraisons à l’hebdomadaire pour enfants Annette (Bruxelles: Pontlevis)[4].
+De 1945 à 1948 trente-huit livraisons à l’hebdomadaire pour enfants Annette (Bruxelles: Pontlevis).
 De 1947 à 1949 publications dans l'hebdomadaire La Semaine de Suzette, les premières collaborations d’Élisabeth Ivanovsky avec Gautier-Languereau : illustrations de contes de Marcelle Vérité dans les no 43 et 50 de 1947, 14 de 1948, 8 et 24 de 1949.
 1952 - "La Belle aventure de Blondine" dans l'hebdomadaire "Le Journal de Spirou" (Marcinelle: Dupuis), no 765 11 déc. *
 1952 - Illustrations de contes dans la revue Jeune Maman.
 De 1953 à 1983 une centaine de publications dans l'hebdomadaire Femmes d’aujourd’hui / Vrouwen Vandaag (Bruxelles).
-De 1954 à 1965 au moins trente-cinq livraisons au mensuel français Grain de Sel[5] et sa version suisse Lundi.
+De 1954 à 1965 au moins trente-cinq livraisons au mensuel français Grain de Sel et sa version suisse Lundi.
 En 1966 au moins six illustrations dans le magazine Jours de France.
 674 titres édités en 24 langues, soit 346 éditions originales et 328 coéditions ou rééditions modifiées.
 </t>
@@ -753,7 +777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +795,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Élisabeth Ivanovsky. Lettre à un homonyme. Généalogie Ivanovsky / Morozov (père) – Tchourkine / Medveev (mère). Six feuillets manuscrits datés du 10 octobre 1984. Bibliothèque nationale de France - Réserve précieuse.
 Кнрнлл Махров (Cyrile Makhroff). Елизавета Ивановская in O[leg]. L. Lejkind, K[iril].V. Makhrov, D[imitri]. Ia. Severiukhin, Khudozhniki russkogo zarubezhia 1917-1939. Biograficheskii slovar. Sankt Peterburg: Notabene, p. 296-297, 1999.
@@ -795,7 +821,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -813,7 +839,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>"Societatea de Belle-Arte dui Basarabia", Kishineff, 1925, 1926, 1927.
 "Salonul Oficial 1928" Ministerul Artelor, Bucuresti.
@@ -856,7 +884,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Ivanovsky</t>
+          <t>Élisabeth_Ivanovsky</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -874,7 +902,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>les Trois ourses</t>
         </is>
